--- a/biology/Botanique/Daisugi/Daisugi.xlsx
+++ b/biology/Botanique/Daisugi/Daisugi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Daisugi (台杉?) est une technique japonaise, similaire au taillis ou à la trogne, utilisée sur les cèdres du Japon, le Cryptomeria japonica (杉, sugi?).
@@ -516,9 +528,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le résultat est un cèdre élancé à la fois flexible et dense, ce qui en fait le choix parfait pour les toits et les poutres en bois traditionnels[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le résultat est un cèdre élancé à la fois flexible et dense, ce qui en fait le choix parfait pour les toits et les poutres en bois traditionnels.
 Les pièces de bois lisses et esthétiques étaient utilisées comme piliers principaux dans une alcôve présente dans les habitations traditionnelles, appelée tokonoma.
 Bien que l'utilisation du cèdre de Kitayama dans ces alcôves traditionnelles diminue à mesure que l'architecture japonaise se développe, ce bois très prisé est toujours utilisé pour tout, des baguettes aux meubles.
 			Un jeune arbre daisugi que l'on essaie de faire revivre dans le quartier Sugisaka de Kita-ku (Kyoto).
